--- a/medicine/Enfance/Jeanne_de_Cavally/Jeanne_de_Cavally.xlsx
+++ b/medicine/Enfance/Jeanne_de_Cavally/Jeanne_de_Cavally.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jeanne de Cavally, née Jeanne Wawa et épouse Goba le  11 novembre 1926 à Bingerville [1]et décédée  le 7 octobre 1992, est une écrivaine pour la jeunesse ivoirienne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeanne de Cavally, née Jeanne Wawa et épouse Goba le  11 novembre 1926 à Bingerville et décédée  le 7 octobre 1992, est une écrivaine pour la jeunesse ivoirienne.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née Jeanne Goba[2], dans une famille nombreuse, elle passe son enfance à Tabou puis à Abidjan. Elle devient institutrice en Côte d'Ivoire après des études à l'École normale d'institutrices de Rufisque, au Sénégal. Elle finit sa carrière comme directrice d'école[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née Jeanne Goba, dans une famille nombreuse, elle passe son enfance à Tabou puis à Abidjan. Elle devient institutrice en Côte d'Ivoire après des études à l'École normale d'institutrices de Rufisque, au Sénégal. Elle finit sa carrière comme directrice d'école.
 Jeanne de Cavally est un nom de plume.
-Elle meurt en 1992. Elle est considérée comme une pionnière en Côte d'Ivoire de la littérature jeunesse, après Léopold Sédar Senghor et son recueil La Belle Histoire de Leuk-le-Lièvre co-écrit avec Abdoulaye Sadji[4].
+Elle meurt en 1992. Elle est considérée comme une pionnière en Côte d'Ivoire de la littérature jeunesse, après Léopold Sédar Senghor et son recueil La Belle Histoire de Leuk-le-Lièvre co-écrit avec Abdoulaye Sadji.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un prix Jeanne de Cavally de littérature pour la jeunesse, est créé en sa mémoire, remis au Salon international du livre d’Abidjan[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un prix Jeanne de Cavally de littérature pour la jeunesse, est créé en sa mémoire, remis au Salon international du livre d’Abidjan.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Papi Abidjan, Nouvelles Éditions africaines (NEA), 1978.
 Poué-Poué le petit cabri, Nouvelles Éditions africaines, 1981.
